--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -1,37 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\accapp\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47F841-7415-4F99-A114-DBAF3DF2CCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Object" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ObjectRecord" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ProjectRecord" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Object" sheetId="1" r:id="rId1"/>
+    <sheet name="ObjectRecord" sheetId="10" r:id="rId2"/>
+    <sheet name="Project" sheetId="2" r:id="rId3"/>
+    <sheet name="ProjectRecord" sheetId="9" r:id="rId4"/>
+    <sheet name="Spec" sheetId="3" r:id="rId5"/>
+    <sheet name="SpecRecord" sheetId="8" r:id="rId6"/>
+    <sheet name="Equip" sheetId="6" r:id="rId7"/>
+    <sheet name="EquipRecord" sheetId="7" r:id="rId8"/>
+    <sheet name="Cat" sheetId="4" r:id="rId9"/>
+    <sheet name="CatRecord" sheetId="5" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+  <si>
+    <t>object_number</t>
+  </si>
+  <si>
+    <t>id_by_class</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>O0</t>
+  </si>
+  <si>
+    <t>Object1 O0</t>
+  </si>
+  <si>
+    <t>project_number</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>P.0</t>
+  </si>
+  <si>
+    <t>Project P.0</t>
+  </si>
+  <si>
+    <t>P.1</t>
+  </si>
+  <si>
+    <t>Project P.1</t>
+  </si>
+  <si>
+    <t>P.2</t>
+  </si>
+  <si>
+    <t>Project P.2</t>
+  </si>
+  <si>
+    <t>spec_name</t>
+  </si>
+  <si>
+    <t>spec_number</t>
+  </si>
+  <si>
+    <t>Spec P0.S0</t>
+  </si>
+  <si>
+    <t>P0.S0</t>
+  </si>
+  <si>
+    <t>Spec P0.S1</t>
+  </si>
+  <si>
+    <t>P0.S1</t>
+  </si>
+  <si>
+    <t>Spec P1.S0</t>
+  </si>
+  <si>
+    <t>P1.S0</t>
+  </si>
+  <si>
+    <t>Spec P1.S1</t>
+  </si>
+  <si>
+    <t>P1.S1</t>
+  </si>
+  <si>
+    <t>Spec P2.S0</t>
+  </si>
+  <si>
+    <t>P2.S0</t>
+  </si>
+  <si>
+    <t>Spec P2.S1</t>
+  </si>
+  <si>
+    <t>P2.S1</t>
+  </si>
+  <si>
+    <t>cat_number</t>
+  </si>
+  <si>
+    <t>cat_name</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>Cat0 C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Cat1 C0.0</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Cat2 C0.0.0</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Cat3 C0.0.1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Cat4 C0.1</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Cat5 C0.1.0</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Cat6 C0.1.1</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Cat7 C1</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>Cat8 C1.0</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Cat9 C1.0.0</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Cat10 C1.0.1</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Cat11 C1.1</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Cat12 C1.1.0</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Cat13 C1.1.1</t>
+  </si>
+  <si>
+    <t>Cat_instance</t>
+  </si>
+  <si>
+    <t>commentary</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>9,12</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>equip_number</t>
+  </si>
+  <si>
+    <t>equip_name</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>Equip E0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Equip E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Equip E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Equip E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Equip E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Equip E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Equip E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Equip E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Equip E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Equip E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>Equip E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>Equip E11</t>
+  </si>
+  <si>
+    <t>CatRecord_instance</t>
+  </si>
+  <si>
+    <t>Equip_instance</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Spec_instance</t>
+  </si>
+  <si>
+    <t>EquipRecord_instance</t>
+  </si>
+  <si>
+    <t>SpecRecord_instance</t>
+  </si>
+  <si>
+    <t>Project_instance</t>
+  </si>
+  <si>
+    <t>Object_instance</t>
+  </si>
+  <si>
+    <t>ProjectRecord_instance</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,80 +398,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,49 +700,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>object_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id_by_class</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>object_number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Object1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -462,79 +859,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>project_number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id_by_class</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Project1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Project2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Project3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -543,84 +960,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ProjectRecord_instance</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Object_instance</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id_by_class</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>commentary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -629,64 +1022,876 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Project_instance</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id_by_class</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>commentary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
